--- a/results/Auto/genero-m1_trabaja_de_profesion-m2.xlsx
+++ b/results/Auto/genero-m1_trabaja_de_profesion-m2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002084251493215561</v>
+        <v>7.780118771449906e-09</v>
       </c>
       <c r="E2" t="n">
         <v>6.763671990483999e-05</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004538855282589793</v>
+        <v>1.886198142120321e-10</v>
       </c>
       <c r="E3" t="n">
         <v>0.0003817988035734743</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01083350088447332</v>
+        <v>1.800610860414054e-08</v>
       </c>
       <c r="E4" t="n">
         <v>0.0006440971628762782</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006412970833480358</v>
+        <v>9.578959847544866e-09</v>
       </c>
       <c r="E5" t="n">
         <v>0.0001811253314372152</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01501882076263428</v>
+        <v>4.958212174166476e-10</v>
       </c>
       <c r="E6" t="n">
         <v>1.043520023813471e-05</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0108332522213459</v>
+        <v>1.167438146154609e-08</v>
       </c>
       <c r="E7" t="n">
         <v>0.006049323827028275</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00274657947011292</v>
+        <v>1.861109133471928e-08</v>
       </c>
       <c r="E8" t="n">
         <v>0.0003226138651371002</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005303469952195883</v>
+        <v>3.504208923033048e-09</v>
       </c>
       <c r="E9" t="n">
         <v>0.0007166594150476158</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001548773725517094</v>
+        <v>4.664921782193687e-09</v>
       </c>
       <c r="E10" t="n">
         <v>4.25584330514539e-05</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003750241361558437</v>
+        <v>2.468665627475275e-08</v>
       </c>
       <c r="E11" t="n">
         <v>0.0002560873690526932</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003591489279642701</v>
+        <v>4.554289034786052e-08</v>
       </c>
       <c r="E12" t="n">
         <v>0.0008470875909551978</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01497743930667639</v>
+        <v>3.836818862623659e-09</v>
       </c>
       <c r="E13" t="n">
         <v>9.507634240435436e-05</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003350902581587434</v>
+        <v>6.978159827752961e-09</v>
       </c>
       <c r="E14" t="n">
         <v>0.0003483006730675697</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01032324600964785</v>
+        <v>1.54162762555643e-08</v>
       </c>
       <c r="E15" t="n">
         <v>0.002052729949355125</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0007629123283550143</v>
+        <v>2.06848449479935e-09</v>
       </c>
       <c r="E16" t="n">
         <v>6.710582238156348e-05</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007742742542177439</v>
+        <v>1.469949051369213e-08</v>
       </c>
       <c r="E17" t="n">
         <v>0.0005448336596600711</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00257785920985043</v>
+        <v>2.430475554149325e-08</v>
       </c>
       <c r="E18" t="n">
         <v>0.0003377250395715237</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001500085229054093</v>
+        <v>2.888394190492249e-09</v>
       </c>
       <c r="E19" t="n">
         <v>0.001902278978377581</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004958983045071363</v>
+        <v>1.354534884256964e-08</v>
       </c>
       <c r="E20" t="n">
         <v>0.00045818104990758</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0.009547962807118893</v>
+        <v>1.66003051305097e-08</v>
       </c>
       <c r="E21" t="n">
         <v>0.0004311715310905129</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003157519036903977</v>
+        <v>9.238073772621647e-08</v>
       </c>
       <c r="E22" t="n">
         <v>4.319539220887236e-05</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003427959512919188</v>
+        <v>8.094915671108538e-08</v>
       </c>
       <c r="E23" t="n">
         <v>0.001088441465981305</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001984301954507828</v>
+        <v>2.90727442120442e-08</v>
       </c>
       <c r="E24" t="n">
         <v>0.001080698100849986</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003907035104930401</v>
+        <v>9.873265538473674e-10</v>
       </c>
       <c r="E25" t="n">
         <v>0.0005058649694547057</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.008618003688752651</v>
+        <v>4.88933116216117e-09</v>
       </c>
       <c r="E26" t="n">
         <v>8.747961692279205e-05</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.003914462868124247</v>
+        <v>1.107822100721023e-08</v>
       </c>
       <c r="E27" t="n">
         <v>4.095997496733617e-07</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02615932933986187</v>
+        <v>6.782025607776632e-09</v>
       </c>
       <c r="E28" t="n">
         <v>2.550965109548997e-05</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002584946807473898</v>
+        <v>6.617478476300676e-08</v>
       </c>
       <c r="E29" t="n">
         <v>5.890247848583385e-05</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0009882140439003706</v>
+        <v>1.248548819887674e-09</v>
       </c>
       <c r="E30" t="n">
         <v>6.678807403659448e-05</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003699970198795199</v>
+        <v>7.425714709796694e-09</v>
       </c>
       <c r="E31" t="n">
         <v>0.0001905893732327968</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.006358314771205187</v>
+        <v>1.02133288493178e-08</v>
       </c>
       <c r="E32" t="n">
         <v>0.002976431511342525</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0119928615167737</v>
+        <v>4.307351364474243e-09</v>
       </c>
       <c r="E33" t="n">
         <v>0.005471492651849985</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0007706875912845135</v>
+        <v>3.087884170582811e-09</v>
       </c>
       <c r="E34" t="n">
         <v>0.002087428933009505</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00475095771253109</v>
+        <v>2.086380845867097e-09</v>
       </c>
       <c r="E35" t="n">
         <v>0.002142115030437708</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01382910273969173</v>
+        <v>1.456994880300044e-08</v>
       </c>
       <c r="E36" t="n">
         <v>0.000132971239509061</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0009913281537592411</v>
+        <v>1.221694301278831e-09</v>
       </c>
       <c r="E37" t="n">
         <v>0.0001656709791859612</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004156208597123623</v>
+        <v>6.099275307036578e-09</v>
       </c>
       <c r="E38" t="n">
         <v>0.0004247769538778812</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.009929942898452282</v>
+        <v>1.819134398672873e-09</v>
       </c>
       <c r="E39" t="n">
         <v>1.396891548210988e-05</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001674511353485286</v>
+        <v>4.513252882532015e-09</v>
       </c>
       <c r="E40" t="n">
         <v>0.001442937180399895</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2009,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.006623776163905859</v>
+        <v>2.401443310873219e-08</v>
       </c>
       <c r="E41" t="n">
         <v>0.0004815543652512133</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001801747246645391</v>
+        <v>5.108755196658876e-09</v>
       </c>
       <c r="E42" t="n">
         <v>0.0003679493966046721</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.003304090350866318</v>
+        <v>7.516694822129466e-09</v>
       </c>
       <c r="E43" t="n">
         <v>4.839004031964578e-05</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0006868224591016769</v>
+        <v>4.244887108484363e-09</v>
       </c>
       <c r="E44" t="n">
         <v>4.024547524750233e-05</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.006501513067632914</v>
+        <v>1.643030067555173e-08</v>
       </c>
       <c r="E45" t="n">
         <v>0.0001034982633427717</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2204,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.006898126099258661</v>
+        <v>3.527502201450261e-08</v>
       </c>
       <c r="E46" t="n">
         <v>0.002307088579982519</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.004164786543697119</v>
+        <v>4.279409271390477e-09</v>
       </c>
       <c r="E47" t="n">
         <v>0.000892265816219151</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2282,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001413090853020549</v>
+        <v>5.075398434861711e-10</v>
       </c>
       <c r="E48" t="n">
         <v>6.84307815390639e-05</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2321,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.001741879270412028</v>
+        <v>1.932914273083952e-08</v>
       </c>
       <c r="E49" t="n">
         <v>3.415071842027828e-05</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.004692897200584412</v>
+        <v>3.867235420784709e-09</v>
       </c>
       <c r="E50" t="n">
         <v>7.464680493285414e-06</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.00895238108932972</v>
+        <v>5.978155748209701e-09</v>
       </c>
       <c r="E51" t="n">
         <v>0.0006204661913216114</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2438,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.004556941799819469</v>
+        <v>1.460369869477063e-08</v>
       </c>
       <c r="E52" t="n">
         <v>0.0001731160446070135</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2477,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.008882071822881699</v>
+        <v>1.274260252870363e-08</v>
       </c>
       <c r="E53" t="n">
         <v>0.004822381306439638</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.008150083012878895</v>
+        <v>3.084728250613011e-09</v>
       </c>
       <c r="E54" t="n">
         <v>0.0003250213922001421</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2555,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0090534882619977</v>
+        <v>1.020864459633231e-08</v>
       </c>
       <c r="E55" t="n">
         <v>0.0004222956486046314</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.005927054211497307</v>
+        <v>8.818616947792179e-09</v>
       </c>
       <c r="E56" t="n">
         <v>0.004442164208739996</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>0.005376507062464952</v>
+        <v>5.821377158099494e-09</v>
       </c>
       <c r="E57" t="n">
         <v>0.001010183012112975</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>0.005591041874140501</v>
+        <v>6.191846591008243e-09</v>
       </c>
       <c r="E58" t="n">
         <v>0.0004014285223092884</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.002894540783017874</v>
+        <v>4.302783018772516e-09</v>
       </c>
       <c r="E59" t="n">
         <v>2.070223672490101e-05</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.008064017631113529</v>
+        <v>1.175865982361302e-08</v>
       </c>
       <c r="E60" t="n">
         <v>0.004109629895538092</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2789,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01329633127897978</v>
+        <v>1.010001149381878e-08</v>
       </c>
       <c r="E61" t="n">
         <v>0.001426450093276799</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2828,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.002689262619242072</v>
+        <v>1.699631901885823e-08</v>
       </c>
       <c r="E62" t="n">
         <v>0.002054742770269513</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01308151893317699</v>
+        <v>2.799838938472021e-08</v>
       </c>
       <c r="E63" t="n">
         <v>5.264066930976696e-05</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.009564529173076153</v>
+        <v>9.614836926630232e-09</v>
       </c>
       <c r="E64" t="n">
         <v>0.0003227571432944387</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2945,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03172595053911209</v>
+        <v>2.195319126485629e-08</v>
       </c>
       <c r="E65" t="n">
         <v>0.0001674971426837146</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.006392581854015589</v>
+        <v>2.428814482868802e-09</v>
       </c>
       <c r="E66" t="n">
         <v>0.0005012647015973926</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.005864231381565332</v>
+        <v>3.30616636290415e-08</v>
       </c>
       <c r="E67" t="n">
         <v>0.002923437627032399</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3062,7 +3062,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04555132985115051</v>
+        <v>2.907439178301274e-09</v>
       </c>
       <c r="E68" t="n">
         <v>2.988729829667136e-05</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.004225728567689657</v>
+        <v>1.499128998716515e-08</v>
       </c>
       <c r="E69" t="n">
         <v>0.0003544360515661538</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.00896071083843708</v>
+        <v>1.749301148379345e-08</v>
       </c>
       <c r="E70" t="n">
         <v>0.0001659837289480492</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3179,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="n">
-        <v>0.008682249113917351</v>
+        <v>5.537836855751266e-08</v>
       </c>
       <c r="E71" t="n">
         <v>0.001559999887831509</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.006841107271611691</v>
+        <v>2.05410692899477e-08</v>
       </c>
       <c r="E72" t="n">
         <v>0.0007745663751848042</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0248919203877449</v>
+        <v>7.791426170911109e-09</v>
       </c>
       <c r="E73" t="n">
         <v>7.559049845440313e-05</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3296,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003305213525891304</v>
+        <v>4.380308116225251e-09</v>
       </c>
       <c r="E74" t="n">
         <v>0.0002358624624321237</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3335,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.004667028319090605</v>
+        <v>9.784856480621329e-09</v>
       </c>
       <c r="E75" t="n">
         <v>9.340614633401856e-05</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.003444554284214973</v>
+        <v>1.447655595399056e-08</v>
       </c>
       <c r="E76" t="n">
         <v>9.310400491813198e-05</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3413,7 +3413,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.001653525396250188</v>
+        <v>8.3890894231331e-09</v>
       </c>
       <c r="E77" t="n">
         <v>7.574717164970934e-05</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001721810083836317</v>
+        <v>5.22712717554441e-09</v>
       </c>
       <c r="E78" t="n">
         <v>1.969412005564664e-05</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3491,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.007389526348561049</v>
+        <v>6.029512444882812e-09</v>
       </c>
       <c r="E79" t="n">
         <v>0.0004199937684461474</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.002924131695181131</v>
+        <v>7.260206325021556e-10</v>
       </c>
       <c r="E80" t="n">
         <v>0.0003592603607103229</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3569,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>0.008913937024772167</v>
+        <v>2.645172525461703e-09</v>
       </c>
       <c r="E81" t="n">
         <v>0.0004449347616173327</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3608,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.004275796469300985</v>
+        <v>1.406394645186992e-08</v>
       </c>
       <c r="E82" t="n">
         <v>0.002011755714192986</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3647,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0161065086722374</v>
+        <v>6.849596889679788e-09</v>
       </c>
       <c r="E83" t="n">
         <v>0.001528343418613076</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3686,7 +3686,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01381442509591579</v>
+        <v>1.27157848694992e-08</v>
       </c>
       <c r="E84" t="n">
         <v>0.0004502437368500978</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3725,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02072501555085182</v>
+        <v>1.992210618695367e-09</v>
       </c>
       <c r="E85" t="n">
         <v>3.807120810961351e-05</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001376219908706844</v>
+        <v>1.058398257924864e-09</v>
       </c>
       <c r="E86" t="n">
         <v>0.000196536595467478</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.02919802255928516</v>
+        <v>1.482817424403038e-09</v>
       </c>
       <c r="E87" t="n">
         <v>1.396670268150046e-05</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.006262492388486862</v>
+        <v>7.20501783235683e-11</v>
       </c>
       <c r="E88" t="n">
         <v>0.0006110016256570816</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.004468942526727915</v>
+        <v>1.063081001007049e-08</v>
       </c>
       <c r="E89" t="n">
         <v>0.0002491431077942252</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3920,7 +3920,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>0.003745116759091616</v>
+        <v>1.509270930455386e-08</v>
       </c>
       <c r="E90" t="n">
         <v>0.000918862409889698</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>0.004511998500674963</v>
+        <v>3.215688826330165e-09</v>
       </c>
       <c r="E91" t="n">
         <v>5.111296559334733e-05</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.005181421060115099</v>
+        <v>3.06751068990252e-08</v>
       </c>
       <c r="E92" t="n">
         <v>4.834214632865041e-05</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4037,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>0.009319839999079704</v>
+        <v>1.00936956570763e-08</v>
       </c>
       <c r="E93" t="n">
         <v>0.003485854947939515</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4076,7 +4076,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001933716353960335</v>
+        <v>6.437079203003293e-10</v>
       </c>
       <c r="E94" t="n">
         <v>4.145201819483191e-05</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>0.006470818538218737</v>
+        <v>5.824160709266835e-09</v>
       </c>
       <c r="E95" t="n">
         <v>0.0005272206617519259</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.004544079769402742</v>
+        <v>2.826350542495248e-10</v>
       </c>
       <c r="E96" t="n">
         <v>0.00063477479852736</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.004460486583411694</v>
+        <v>7.031879967200894e-09</v>
       </c>
       <c r="E97" t="n">
         <v>0.001975852064788342</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4232,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>0.004830427467823029</v>
+        <v>7.80246889320324e-09</v>
       </c>
       <c r="E98" t="n">
         <v>0.002472564112395048</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01491919904947281</v>
+        <v>6.201540392325455e-10</v>
       </c>
       <c r="E99" t="n">
         <v>4.815634383703582e-05</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.006536940112709999</v>
+        <v>6.069455160684356e-09</v>
       </c>
       <c r="E100" t="n">
         <v>0.000301274616504088</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0009682783856987953</v>
+        <v>8.539901008575157e-10</v>
       </c>
       <c r="E101" t="n">
         <v>0.007531350012868643</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -4388,7 +4388,7 @@
         <v>101</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01435145735740662</v>
+        <v>9.700455994021695e-10</v>
       </c>
       <c r="E102" t="n">
         <v>0.002063731895759702</v>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -4427,7 +4427,7 @@
         <v>102</v>
       </c>
       <c r="D103" t="n">
-        <v>0.008237574249505997</v>
+        <v>1.342777666835104e-09</v>
       </c>
       <c r="E103" t="n">
         <v>0.0004658862017095089</v>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -4466,7 +4466,7 @@
         <v>103</v>
       </c>
       <c r="D104" t="n">
-        <v>0.002157014096155763</v>
+        <v>1.04171622439253e-08</v>
       </c>
       <c r="E104" t="n">
         <v>0.00174959865398705</v>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -4505,7 +4505,7 @@
         <v>104</v>
       </c>
       <c r="D105" t="n">
-        <v>0.004134761169552803</v>
+        <v>6.805187524605572e-08</v>
       </c>
       <c r="E105" t="n">
         <v>0.0002082069840980694</v>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -4544,7 +4544,7 @@
         <v>105</v>
       </c>
       <c r="D106" t="n">
-        <v>0.004161594435572624</v>
+        <v>1.754627776406892e-09</v>
       </c>
       <c r="E106" t="n">
         <v>0.0003651781007647514</v>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -4583,7 +4583,7 @@
         <v>106</v>
       </c>
       <c r="D107" t="n">
-        <v>0.02353804558515549</v>
+        <v>4.864692648709479e-09</v>
       </c>
       <c r="E107" t="n">
         <v>0.0001705160102574155</v>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -4622,7 +4622,7 @@
         <v>107</v>
       </c>
       <c r="D108" t="n">
-        <v>0.001663298811763525</v>
+        <v>7.797552048494083e-10</v>
       </c>
       <c r="E108" t="n">
         <v>2.947686516563408e-05</v>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -4661,7 +4661,7 @@
         <v>108</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0007050616550259292</v>
+        <v>3.024560379927266e-09</v>
       </c>
       <c r="E109" t="n">
         <v>2.65429298451636e-05</v>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -4700,7 +4700,7 @@
         <v>109</v>
       </c>
       <c r="D110" t="n">
-        <v>0.002204015618190169</v>
+        <v>2.301324997233678e-08</v>
       </c>
       <c r="E110" t="n">
         <v>0.0001734676479827613</v>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -4739,7 +4739,7 @@
         <v>110</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01119998190551996</v>
+        <v>7.615274633110403e-09</v>
       </c>
       <c r="E111" t="n">
         <v>0.0006311486940830946</v>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -4778,7 +4778,7 @@
         <v>111</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0008186158374883235</v>
+        <v>3.517063973390577e-09</v>
       </c>
       <c r="E112" t="n">
         <v>0.001672746730037034</v>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -4817,7 +4817,7 @@
         <v>112</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0008186158374883235</v>
+        <v>3.517063973390577e-09</v>
       </c>
       <c r="E113" t="n">
         <v>0.001672746730037034</v>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -4856,7 +4856,7 @@
         <v>113</v>
       </c>
       <c r="D114" t="n">
-        <v>0.02023823373019695</v>
+        <v>5.21699972111378e-09</v>
       </c>
       <c r="E114" t="n">
         <v>0.0004809604433830827</v>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -4895,7 +4895,7 @@
         <v>114</v>
       </c>
       <c r="D115" t="n">
-        <v>0.006710829678922892</v>
+        <v>2.964382073145089e-09</v>
       </c>
       <c r="E115" t="n">
         <v>0.0002101995924022049</v>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -4934,7 +4934,7 @@
         <v>115</v>
       </c>
       <c r="D116" t="n">
-        <v>0.001062926952727139</v>
+        <v>2.325104331291072e-09</v>
       </c>
       <c r="E116" t="n">
         <v>2.324772503925487e-05</v>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -4973,7 +4973,7 @@
         <v>116</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01279461942613125</v>
+        <v>1.890109402324924e-09</v>
       </c>
       <c r="E117" t="n">
         <v>0.001295852591283619</v>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -5012,7 +5012,7 @@
         <v>117</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0004705283499788493</v>
+        <v>8.766919634695114e-09</v>
       </c>
       <c r="E118" t="n">
         <v>3.855950853903778e-05</v>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -5051,7 +5051,7 @@
         <v>118</v>
       </c>
       <c r="D119" t="n">
-        <v>0.004020751919597387</v>
+        <v>1.248024128486236e-09</v>
       </c>
       <c r="E119" t="n">
         <v>2.680175020941533e-05</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -5090,7 +5090,7 @@
         <v>119</v>
       </c>
       <c r="D120" t="n">
-        <v>0.006206527817994356</v>
+        <v>3.834554007653423e-09</v>
       </c>
       <c r="E120" t="n">
         <v>0.0003263769904151559</v>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -5129,7 +5129,7 @@
         <v>120</v>
       </c>
       <c r="D121" t="n">
-        <v>0.004532629624009132</v>
+        <v>9.514883991812439e-09</v>
       </c>
       <c r="E121" t="n">
         <v>7.665071461815387e-05</v>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -5168,7 +5168,7 @@
         <v>121</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01086940709501505</v>
+        <v>1.556411710623706e-08</v>
       </c>
       <c r="E122" t="n">
         <v>0.00189723283983767</v>
@@ -5185,7 +5185,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -5207,7 +5207,7 @@
         <v>122</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01013272814452648</v>
+        <v>6.970177324205906e-09</v>
       </c>
       <c r="E123" t="n">
         <v>0.0005346279358491302</v>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -5246,7 +5246,7 @@
         <v>123</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01637041382491589</v>
+        <v>1.932197690734938e-08</v>
       </c>
       <c r="E124" t="n">
         <v>0.002128646476194263</v>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -5285,7 +5285,7 @@
         <v>124</v>
       </c>
       <c r="D125" t="n">
-        <v>0.01378736272454262</v>
+        <v>8.428450160025136e-10</v>
       </c>
       <c r="E125" t="n">
         <v>5.36499937879853e-05</v>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -5324,7 +5324,7 @@
         <v>125</v>
       </c>
       <c r="D126" t="n">
-        <v>0.01089110597968102</v>
+        <v>5.938806069138991e-08</v>
       </c>
       <c r="E126" t="n">
         <v>0.001025860896334052</v>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -5363,7 +5363,7 @@
         <v>126</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0004989714943803847</v>
+        <v>2.883880911852543e-09</v>
       </c>
       <c r="E127" t="n">
         <v>5.341585710993968e-05</v>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -5402,7 +5402,7 @@
         <v>127</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0008716368465684354</v>
+        <v>1.969756135977718e-09</v>
       </c>
       <c r="E128" t="n">
         <v>0.0001457262696931139</v>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -5441,7 +5441,7 @@
         <v>128</v>
       </c>
       <c r="D129" t="n">
-        <v>0.004067983943969011</v>
+        <v>7.678210067751934e-09</v>
       </c>
       <c r="E129" t="n">
         <v>0.0001828363019740209</v>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -5480,7 +5480,7 @@
         <v>129</v>
       </c>
       <c r="D130" t="n">
-        <v>0.002365501364693046</v>
+        <v>8.800766337913046e-09</v>
       </c>
       <c r="E130" t="n">
         <v>0.0001857137103797868</v>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -5519,7 +5519,7 @@
         <v>130</v>
       </c>
       <c r="D131" t="n">
-        <v>0.005764203146100044</v>
+        <v>1.698694873653039e-08</v>
       </c>
       <c r="E131" t="n">
         <v>0.0001122359390137717</v>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -5558,7 +5558,7 @@
         <v>131</v>
       </c>
       <c r="D132" t="n">
-        <v>0.001372776925563812</v>
+        <v>2.652957675763901e-08</v>
       </c>
       <c r="E132" t="n">
         <v>0.003676240099593997</v>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -5597,7 +5597,7 @@
         <v>132</v>
       </c>
       <c r="D133" t="n">
-        <v>0.005895882379263639</v>
+        <v>3.50306206264861e-09</v>
       </c>
       <c r="E133" t="n">
         <v>1.663458169787191e-05</v>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -5636,7 +5636,7 @@
         <v>133</v>
       </c>
       <c r="D134" t="n">
-        <v>0.007208753377199173</v>
+        <v>1.096348434259653e-08</v>
       </c>
       <c r="E134" t="n">
         <v>0.001284423400647938</v>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -5675,7 +5675,7 @@
         <v>134</v>
       </c>
       <c r="D135" t="n">
-        <v>0.000122642275528051</v>
+        <v>3.816797433664476e-10</v>
       </c>
       <c r="E135" t="n">
         <v>5.775041790911928e-05</v>
@@ -5692,7 +5692,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -5714,7 +5714,7 @@
         <v>135</v>
       </c>
       <c r="D136" t="n">
-        <v>0.004542678128927946</v>
+        <v>9.565875869199658e-10</v>
       </c>
       <c r="E136" t="n">
         <v>0.0002821680100169033</v>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -5753,7 +5753,7 @@
         <v>136</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01108718477189541</v>
+        <v>9.653578381119132e-09</v>
       </c>
       <c r="E137" t="n">
         <v>0.002050364622846246</v>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -5792,7 +5792,7 @@
         <v>137</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0101515157148242</v>
+        <v>7.582730177091435e-08</v>
       </c>
       <c r="E138" t="n">
         <v>0.001428501447662711</v>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -5831,7 +5831,7 @@
         <v>138</v>
       </c>
       <c r="D139" t="n">
-        <v>0.004989618435502052</v>
+        <v>7.648153221850862e-09</v>
       </c>
       <c r="E139" t="n">
         <v>0.0001465583918616176</v>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -5870,7 +5870,7 @@
         <v>139</v>
       </c>
       <c r="D140" t="n">
-        <v>0.004920749459415674</v>
+        <v>6.063415991519605e-09</v>
       </c>
       <c r="E140" t="n">
         <v>0.0006546014919877052</v>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -5909,7 +5909,7 @@
         <v>140</v>
       </c>
       <c r="D141" t="n">
-        <v>0.01040881313383579</v>
+        <v>8.670697049240061e-09</v>
       </c>
       <c r="E141" t="n">
         <v>0.0006543031195178628</v>
@@ -5926,7 +5926,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -5948,7 +5948,7 @@
         <v>141</v>
       </c>
       <c r="D142" t="n">
-        <v>0.006954134907573462</v>
+        <v>5.775929956541859e-09</v>
       </c>
       <c r="E142" t="n">
         <v>0.0005739388871006668</v>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -5987,7 +5987,7 @@
         <v>142</v>
       </c>
       <c r="D143" t="n">
-        <v>0.004904935136437416</v>
+        <v>1.009118233419315e-09</v>
       </c>
       <c r="E143" t="n">
         <v>8.958573016570881e-05</v>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -6026,7 +6026,7 @@
         <v>143</v>
       </c>
       <c r="D144" t="n">
-        <v>0.003439750289544463</v>
+        <v>4.586969026831866e-09</v>
       </c>
       <c r="E144" t="n">
         <v>0.0002198632864747196</v>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -6065,7 +6065,7 @@
         <v>144</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01757790334522724</v>
+        <v>8.246086480312442e-09</v>
       </c>
       <c r="E145" t="n">
         <v>0.002823364222422242</v>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -6104,7 +6104,7 @@
         <v>145</v>
       </c>
       <c r="D146" t="n">
-        <v>0.003428523428738117</v>
+        <v>1.94801490494001e-08</v>
       </c>
       <c r="E146" t="n">
         <v>0.0004173543129581958</v>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -6143,7 +6143,7 @@
         <v>146</v>
       </c>
       <c r="D147" t="n">
-        <v>0.004015123471617699</v>
+        <v>1.945704397599002e-08</v>
       </c>
       <c r="E147" t="n">
         <v>0.004401213489472866</v>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -6182,7 +6182,7 @@
         <v>147</v>
       </c>
       <c r="D148" t="n">
-        <v>0.008124763146042824</v>
+        <v>1.050749176556565e-08</v>
       </c>
       <c r="E148" t="n">
         <v>0.001175567274913192</v>
@@ -6199,7 +6199,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -6221,7 +6221,7 @@
         <v>148</v>
       </c>
       <c r="D149" t="n">
-        <v>0.02354737743735313</v>
+        <v>1.928983861532174e-09</v>
       </c>
       <c r="E149" t="n">
         <v>0.0001812752307159826</v>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -6260,7 +6260,7 @@
         <v>149</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0129907513037324</v>
+        <v>6.317801393151967e-09</v>
       </c>
       <c r="E150" t="n">
         <v>4.990478191757575e-05</v>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -6299,7 +6299,7 @@
         <v>150</v>
       </c>
       <c r="D151" t="n">
-        <v>0.008513987064361572</v>
+        <v>4.799207697914198e-09</v>
       </c>
       <c r="E151" t="n">
         <v>0.001852166256867349</v>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -6338,7 +6338,7 @@
         <v>151</v>
       </c>
       <c r="D152" t="n">
-        <v>0.004420978482812643</v>
+        <v>5.73709701967573e-09</v>
       </c>
       <c r="E152" t="n">
         <v>0.0005692481645382941</v>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -6377,7 +6377,7 @@
         <v>152</v>
       </c>
       <c r="D153" t="n">
-        <v>0.001525716157630086</v>
+        <v>1.336975330445966e-08</v>
       </c>
       <c r="E153" t="n">
         <v>0.0006641814252361655</v>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -6416,7 +6416,7 @@
         <v>153</v>
       </c>
       <c r="D154" t="n">
-        <v>0.02244173549115658</v>
+        <v>3.168915130302707e-09</v>
       </c>
       <c r="E154" t="n">
         <v>0.0008589609060436487</v>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -6455,7 +6455,7 @@
         <v>154</v>
       </c>
       <c r="D155" t="n">
-        <v>0.007538261357694864</v>
+        <v>1.890963297057624e-08</v>
       </c>
       <c r="E155" t="n">
         <v>0.001952185994014144</v>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -6494,7 +6494,7 @@
         <v>155</v>
       </c>
       <c r="D156" t="n">
-        <v>0.006510058883577585</v>
+        <v>1.580271913326214e-09</v>
       </c>
       <c r="E156" t="n">
         <v>0.0001262740261154249</v>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -6533,7 +6533,7 @@
         <v>156</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01248507667332888</v>
+        <v>8.651234395529173e-09</v>
       </c>
       <c r="E157" t="n">
         <v>0.0003235206531826407</v>
@@ -6550,7 +6550,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -6572,7 +6572,7 @@
         <v>157</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0009352368651889265</v>
+        <v>1.055899812030248e-08</v>
       </c>
       <c r="E158" t="n">
         <v>0.001192399649880826</v>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -6611,7 +6611,7 @@
         <v>158</v>
       </c>
       <c r="D159" t="n">
-        <v>0.00590273505076766</v>
+        <v>7.868514728670561e-09</v>
       </c>
       <c r="E159" t="n">
         <v>0.0004954533651471138</v>
@@ -6628,7 +6628,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -6650,7 +6650,7 @@
         <v>159</v>
       </c>
       <c r="D160" t="n">
-        <v>0.01938295736908913</v>
+        <v>6.873328017853453e-10</v>
       </c>
       <c r="E160" t="n">
         <v>4.787627040059306e-05</v>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -6689,7 +6689,7 @@
         <v>160</v>
       </c>
       <c r="D161" t="n">
-        <v>0.002833116799592972</v>
+        <v>5.933216140618924e-09</v>
       </c>
       <c r="E161" t="n">
         <v>0.0001723635941743851</v>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -6728,7 +6728,7 @@
         <v>161</v>
       </c>
       <c r="D162" t="n">
-        <v>0.003601059317588806</v>
+        <v>4.875015946481653e-09</v>
       </c>
       <c r="E162" t="n">
         <v>0.0001157369842985645</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -6767,7 +6767,7 @@
         <v>162</v>
       </c>
       <c r="D163" t="n">
-        <v>0.006717928219586611</v>
+        <v>5.216537424246326e-09</v>
       </c>
       <c r="E163" t="n">
         <v>0.0002842144458554685</v>
@@ -6784,7 +6784,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -6806,7 +6806,7 @@
         <v>163</v>
       </c>
       <c r="D164" t="n">
-        <v>0.004284997005015612</v>
+        <v>9.785617649527012e-09</v>
       </c>
       <c r="E164" t="n">
         <v>0.003136351704597473</v>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -6845,7 +6845,7 @@
         <v>164</v>
       </c>
       <c r="D165" t="n">
-        <v>0.001725626178085804</v>
+        <v>4.340944048664142e-09</v>
       </c>
       <c r="E165" t="n">
         <v>6.540013418998569e-05</v>
@@ -6862,7 +6862,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -6884,7 +6884,7 @@
         <v>165</v>
       </c>
       <c r="D166" t="n">
-        <v>0.002612184965983033</v>
+        <v>7.967609150227872e-08</v>
       </c>
       <c r="E166" t="n">
         <v>0.0004798420995939523</v>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -6923,7 +6923,7 @@
         <v>166</v>
       </c>
       <c r="D167" t="n">
-        <v>0.003321745898574591</v>
+        <v>3.923386771020887e-08</v>
       </c>
       <c r="E167" t="n">
         <v>0.001241349731571972</v>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -6962,7 +6962,7 @@
         <v>167</v>
       </c>
       <c r="D168" t="n">
-        <v>0.003789843991398811</v>
+        <v>2.55022669648497e-08</v>
       </c>
       <c r="E168" t="n">
         <v>0.001880042837001383</v>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -7001,7 +7001,7 @@
         <v>168</v>
       </c>
       <c r="D169" t="n">
-        <v>0.005994786974042654</v>
+        <v>1.344197730901442e-08</v>
       </c>
       <c r="E169" t="n">
         <v>3.707860014401376e-05</v>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -7040,7 +7040,7 @@
         <v>169</v>
       </c>
       <c r="D170" t="n">
-        <v>0.002547092037275434</v>
+        <v>2.403071741596818e-09</v>
       </c>
       <c r="E170" t="n">
         <v>0.001467258320190012</v>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -7079,7 +7079,7 @@
         <v>170</v>
       </c>
       <c r="D171" t="n">
-        <v>0.01111811120063066</v>
+        <v>7.311216076999472e-09</v>
       </c>
       <c r="E171" t="n">
         <v>3.576816015993245e-05</v>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -7118,7 +7118,7 @@
         <v>171</v>
       </c>
       <c r="D172" t="n">
-        <v>0.003732869401574135</v>
+        <v>2.212311578375648e-08</v>
       </c>
       <c r="E172" t="n">
         <v>0.001676881103776395</v>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -7157,7 +7157,7 @@
         <v>172</v>
       </c>
       <c r="D173" t="n">
-        <v>0.0008207764476537704</v>
+        <v>5.140076808629601e-09</v>
       </c>
       <c r="E173" t="n">
         <v>0.0003083833726122975</v>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -7196,7 +7196,7 @@
         <v>173</v>
       </c>
       <c r="D174" t="n">
-        <v>0.006527789868414402</v>
+        <v>1.583801534366103e-08</v>
       </c>
       <c r="E174" t="n">
         <v>0.0002103093866026029</v>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -7235,7 +7235,7 @@
         <v>174</v>
       </c>
       <c r="D175" t="n">
-        <v>0.001666098949499428</v>
+        <v>1.48490586493466e-09</v>
       </c>
       <c r="E175" t="n">
         <v>1.528450047771912e-05</v>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -7274,7 +7274,7 @@
         <v>175</v>
       </c>
       <c r="D176" t="n">
-        <v>0.01028116419911385</v>
+        <v>1.168024876818663e-08</v>
       </c>
       <c r="E176" t="n">
         <v>0.0008983975276350975</v>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -7313,7 +7313,7 @@
         <v>176</v>
       </c>
       <c r="D177" t="n">
-        <v>0.003790602320805192</v>
+        <v>5.783729495334455e-09</v>
       </c>
       <c r="E177" t="n">
         <v>0.00116396218072623</v>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -7352,7 +7352,7 @@
         <v>177</v>
       </c>
       <c r="D178" t="n">
-        <v>0.01559747476130724</v>
+        <v>5.940577807450609e-09</v>
       </c>
       <c r="E178" t="n">
         <v>0.0007295893738046288</v>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -7391,7 +7391,7 @@
         <v>178</v>
       </c>
       <c r="D179" t="n">
-        <v>0.008477366529405117</v>
+        <v>1.426546614169411e-08</v>
       </c>
       <c r="E179" t="n">
         <v>4.165901555097662e-05</v>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -7430,7 +7430,7 @@
         <v>179</v>
       </c>
       <c r="D180" t="n">
-        <v>0.009964339435100555</v>
+        <v>1.012446682047141e-09</v>
       </c>
       <c r="E180" t="n">
         <v>0.00585818849503994</v>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -7469,7 +7469,7 @@
         <v>180</v>
       </c>
       <c r="D181" t="n">
-        <v>0.01851190440356731</v>
+        <v>7.634055165794962e-09</v>
       </c>
       <c r="E181" t="n">
         <v>0.001875855377875268</v>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -7508,7 +7508,7 @@
         <v>181</v>
       </c>
       <c r="D182" t="n">
-        <v>0.01256775576621294</v>
+        <v>5.143594994372336e-10</v>
       </c>
       <c r="E182" t="n">
         <v>0.0002779634087346494</v>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -7547,7 +7547,7 @@
         <v>182</v>
       </c>
       <c r="D183" t="n">
-        <v>0.00755988759920001</v>
+        <v>2.496518103356493e-09</v>
       </c>
       <c r="E183" t="n">
         <v>0.0001094717008527368</v>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -7586,7 +7586,7 @@
         <v>183</v>
       </c>
       <c r="D184" t="n">
-        <v>0.01272166054695845</v>
+        <v>1.368738811180492e-08</v>
       </c>
       <c r="E184" t="n">
         <v>0.00026984658325091</v>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -7625,7 +7625,7 @@
         <v>184</v>
       </c>
       <c r="D185" t="n">
-        <v>0.002745111472904682</v>
+        <v>1.438676999754307e-08</v>
       </c>
       <c r="E185" t="n">
         <v>6.778250099159777e-05</v>
@@ -7642,7 +7642,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -7664,7 +7664,7 @@
         <v>185</v>
       </c>
       <c r="D186" t="n">
-        <v>0.0232076495885849</v>
+        <v>4.443703360834661e-08</v>
       </c>
       <c r="E186" t="n">
         <v>0.001486973953433335</v>
@@ -7681,7 +7681,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -7703,7 +7703,7 @@
         <v>186</v>
       </c>
       <c r="D187" t="n">
-        <v>0.005122845061123371</v>
+        <v>3.095601996960795e-08</v>
       </c>
       <c r="E187" t="n">
         <v>0.0002383492974331602</v>
@@ -7720,7 +7720,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -7742,7 +7742,7 @@
         <v>187</v>
       </c>
       <c r="D188" t="n">
-        <v>0.00575566478073597</v>
+        <v>1.059189624896817e-08</v>
       </c>
       <c r="E188" t="n">
         <v>0.001021001837216318</v>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -7781,7 +7781,7 @@
         <v>188</v>
       </c>
       <c r="D189" t="n">
-        <v>0.003543224185705185</v>
+        <v>4.581796630986901e-08</v>
       </c>
       <c r="E189" t="n">
         <v>0.001011186977848411</v>
@@ -7798,7 +7798,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -7820,7 +7820,7 @@
         <v>189</v>
       </c>
       <c r="D190" t="n">
-        <v>0.008387532085180283</v>
+        <v>5.011199011306644e-09</v>
       </c>
       <c r="E190" t="n">
         <v>0.0003500332531984895</v>
@@ -7837,7 +7837,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -7859,7 +7859,7 @@
         <v>190</v>
       </c>
       <c r="D191" t="n">
-        <v>5.707250238629058e-06</v>
+        <v>5.039572578691143e-11</v>
       </c>
       <c r="E191" t="n">
         <v>0.0002364725078223273</v>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -7898,7 +7898,7 @@
         <v>191</v>
       </c>
       <c r="D192" t="n">
-        <v>0.001150774420239031</v>
+        <v>3.695453665297777e-10</v>
       </c>
       <c r="E192" t="n">
         <v>0.0001833015849115327</v>
@@ -7915,7 +7915,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -7937,7 +7937,7 @@
         <v>192</v>
       </c>
       <c r="D193" t="n">
-        <v>0.009386563673615456</v>
+        <v>4.695232647122793e-08</v>
       </c>
       <c r="E193" t="n">
         <v>0.0006310067255981266</v>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -7976,7 +7976,7 @@
         <v>193</v>
       </c>
       <c r="D194" t="n">
-        <v>0.00674289558082819</v>
+        <v>7.492823250743186e-09</v>
       </c>
       <c r="E194" t="n">
         <v>0.0003057969151996076</v>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -8015,7 +8015,7 @@
         <v>194</v>
       </c>
       <c r="D195" t="n">
-        <v>0.007632926106452942</v>
+        <v>1.005534588927048e-08</v>
       </c>
       <c r="E195" t="n">
         <v>0.002013552701100707</v>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -8054,7 +8054,7 @@
         <v>195</v>
       </c>
       <c r="D196" t="n">
-        <v>0.01241408940404654</v>
+        <v>1.131664895126505e-08</v>
       </c>
       <c r="E196" t="n">
         <v>0.0003414423554204404</v>
@@ -8071,7 +8071,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -8093,7 +8093,7 @@
         <v>196</v>
       </c>
       <c r="D197" t="n">
-        <v>0.009836994111537933</v>
+        <v>1.131069637949622e-08</v>
       </c>
       <c r="E197" t="n">
         <v>0.0005467520095407963</v>
@@ -8110,7 +8110,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -8132,7 +8132,7 @@
         <v>197</v>
       </c>
       <c r="D198" t="n">
-        <v>0.009234988130629063</v>
+        <v>1.203604682586956e-08</v>
       </c>
       <c r="E198" t="n">
         <v>8.958283433457837e-05</v>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -8171,7 +8171,7 @@
         <v>198</v>
       </c>
       <c r="D199" t="n">
-        <v>0.004512072075158358</v>
+        <v>6.546917674654651e-09</v>
       </c>
       <c r="E199" t="n">
         <v>0.0005771422875113785</v>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -8210,7 +8210,7 @@
         <v>199</v>
       </c>
       <c r="D200" t="n">
-        <v>0.00527550745755434</v>
+        <v>3.964390060673395e-08</v>
       </c>
       <c r="E200" t="n">
         <v>0.0006499433075077832</v>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -8249,7 +8249,7 @@
         <v>200</v>
       </c>
       <c r="D201" t="n">
-        <v>0.001749538700096309</v>
+        <v>1.239566049804353e-08</v>
       </c>
       <c r="E201" t="n">
         <v>3.085886419285089e-05</v>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -8288,7 +8288,7 @@
         <v>201</v>
       </c>
       <c r="D202" t="n">
-        <v>0.005817900411784649</v>
+        <v>2.312417590744076e-09</v>
       </c>
       <c r="E202" t="n">
         <v>0.0028769769705832</v>
@@ -8305,7 +8305,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -8327,7 +8327,7 @@
         <v>202</v>
       </c>
       <c r="D203" t="n">
-        <v>0.009770656935870647</v>
+        <v>1.993967124747087e-08</v>
       </c>
       <c r="E203" t="n">
         <v>0.0008042635163292289</v>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -8366,7 +8366,7 @@
         <v>203</v>
       </c>
       <c r="D204" t="n">
-        <v>0.00462828716263175</v>
+        <v>1.084002931861505e-08</v>
       </c>
       <c r="E204" t="n">
         <v>0.001899538212455809</v>
@@ -8383,7 +8383,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -8405,7 +8405,7 @@
         <v>204</v>
       </c>
       <c r="D205" t="n">
-        <v>0.008109802380204201</v>
+        <v>1.74881265024851e-08</v>
       </c>
       <c r="E205" t="n">
         <v>6.037740968167782e-05</v>
@@ -8422,7 +8422,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -8444,7 +8444,7 @@
         <v>205</v>
       </c>
       <c r="D206" t="n">
-        <v>0.01402819994837046</v>
+        <v>7.588443651229682e-08</v>
       </c>
       <c r="E206" t="n">
         <v>0.00116355565842241</v>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -8483,7 +8483,7 @@
         <v>206</v>
       </c>
       <c r="D207" t="n">
-        <v>0.001505692722275853</v>
+        <v>5.037910089100706e-09</v>
       </c>
       <c r="E207" t="n">
         <v>0.0001312776294071227</v>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -8522,7 +8522,7 @@
         <v>207</v>
       </c>
       <c r="D208" t="n">
-        <v>0.007839088328182697</v>
+        <v>1.674289151765151e-09</v>
       </c>
       <c r="E208" t="n">
         <v>5.482947017299011e-05</v>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -8561,7 +8561,7 @@
         <v>208</v>
       </c>
       <c r="D209" t="n">
-        <v>0.005416080355644226</v>
+        <v>2.521017883339027e-08</v>
       </c>
       <c r="E209" t="n">
         <v>3.830248169833794e-05</v>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
